--- a/biology/Botanique/Lentille_de_Cilaos/Lentille_de_Cilaos.xlsx
+++ b/biology/Botanique/Lentille_de_Cilaos/Lentille_de_Cilaos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La lentille de Cilaos est un type de lentilles cultivé sur l'île de La Réunion.
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La culture de cette lentille est connue sur l'île de La Réunion depuis 1836. Mais ce n'est qu'en 1857 qu'elle est officiellement produite dans le cirque de Cilaos[1]. La production pour l’année 1881 est évaluée à 25 tonnes[réf. nécessaire]. Chaque année en octobre a lieu la fête de la lentille[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture de cette lentille est connue sur l'île de La Réunion depuis 1836. Mais ce n'est qu'en 1857 qu'elle est officiellement produite dans le cirque de Cilaos. La production pour l’année 1881 est évaluée à 25 tonnes[réf. nécessaire]. Chaque année en octobre a lieu la fête de la lentille.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Semées en avril, les lentilles se récoltent en septembre[3]. Autrefois effectuée manuellement à l'aide d'une gaulette[4],[5], la récolte se fait majoritairement, de nos jours, au moyen d'une batteuse électrique[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Semées en avril, les lentilles se récoltent en septembre. Autrefois effectuée manuellement à l'aide d'une gaulette la récolte se fait majoritairement, de nos jours, au moyen d'une batteuse électrique.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sources : ville de Cilaos[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sources : ville de Cilaos.</t>
         </is>
       </c>
     </row>
